--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224949.7147478313</v>
+        <v>-226837.2962642332</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>453213.6697500228</v>
+        <v>237765.2882911035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>135.260060904611</v>
+        <v>78.59202847703558</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>102.758143516853</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8618052866819</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>214.0853002980675</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>91.2892858550503</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>78.73282967914164</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>198.1170787177776</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.1088922713593</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.2198021316251</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.8652689647488</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T16" t="n">
-        <v>6.234542729410862</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="X19" t="n">
-        <v>193.8883348557945</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.627084658456852</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>97.12772045570696</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0343449114643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113186</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>176.9527187969212</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>217.7518546984675</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>6.749002612115078</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>209.3408607411369</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789563</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3238,7 +3238,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287497</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2033.097625012799</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="W2" t="n">
-        <v>2033.097625012799</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.631866751719</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,28 +4428,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>594.9159604975785</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>808.0839286340174</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>808.0839286340174</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>422.2956760357732</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>415.3501752865697</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437.5354894428046</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>606.50066520647</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>606.50066520647</v>
       </c>
       <c r="U7" t="n">
-        <v>619.1839542730444</v>
+        <v>606.50066520647</v>
       </c>
       <c r="V7" t="n">
-        <v>619.1839542730444</v>
+        <v>606.50066520647</v>
       </c>
       <c r="W7" t="n">
-        <v>619.1839542730444</v>
+        <v>606.50066520647</v>
       </c>
       <c r="X7" t="n">
-        <v>619.1839542730444</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y7" t="n">
-        <v>619.1839542730444</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.063616086467</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>1409.101099146055</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>1050.835400539305</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>665.0471479410605</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>254.061243151453</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062279</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.202948062279</v>
+        <v>1311.034939604418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.063616086467</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.1920961943573</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>163.2559132664504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>513.840561024597</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>513.840561024597</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,43 +5027,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.438612565609</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1850.959268203227</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.1484955647067</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384765</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.7969603949464</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
         <v>508.1073603047985</v>
@@ -5367,16 +5367,16 @@
         <v>1058.405785702849</v>
       </c>
       <c r="N15" t="n">
-        <v>1862.817363967</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506742</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T16" t="n">
-        <v>1292.698742564959</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1292.698742564959</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1038.014254359072</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>748.5970843221112</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>748.5970843221112</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M18" t="n">
-        <v>1156.807040804714</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N18" t="n">
-        <v>1501.327696442332</v>
+        <v>1708.803246589661</v>
       </c>
       <c r="O18" t="n">
-        <v>2170.791457744991</v>
+        <v>2378.26700789232</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>559.3363305964849</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>559.3363305964849</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>416.7562627979262</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>646.7193686662754</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M21" t="n">
-        <v>967.0546881959772</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.466266460128</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.0479578003558</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655734</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286129</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305955</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305955</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347409</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104479</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X25" t="n">
-        <v>819.0123268140193</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y25" t="n">
-        <v>598.2197476704891</v>
+        <v>195.3259000014039</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1073603047985</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>1276.47550669726</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N27" t="n">
-        <v>1276.47550669726</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.8632439327646</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6415,19 +6415,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X28" t="n">
-        <v>734.8632439327646</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.8632439327646</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248426</v>
+        <v>488.029493755349</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783065</v>
+        <v>374.8541761088128</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473417</v>
+        <v>280.4984019778479</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463194</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>304.28869102978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1929.308888700402</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1785.149743897325</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1617.125193968202</v>
       </c>
       <c r="U31" t="n">
-        <v>1357.172715277033</v>
+        <v>1383.75742046313</v>
       </c>
       <c r="V31" t="n">
-        <v>1158.249092352517</v>
+        <v>1184.833797538614</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352517</v>
+        <v>951.1774927830241</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358707</v>
+        <v>778.9488071663775</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737114</v>
+        <v>613.917093304218</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,46 +6689,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6886,22 +6886,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>395.3668263325957</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N36" t="n">
-        <v>2056.693778606511</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O36" t="n">
-        <v>2056.693778606511</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2409.251445931624</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,7 +7333,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>273.7927652855384</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>331.8762990088229</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>273.7927652855384</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>215.3005754067912</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>163.8574259938011</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,19 +11385,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>382.9598396167773</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>54.62829949862878</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037954</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3130183289784</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>124.7054865406961</v>
       </c>
       <c r="X19" t="n">
-        <v>31.82132053324261</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.619736440171</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>51.48775256250539</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>60.67531047757285</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>2.879261385016065</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.957800690569655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.01209316312094</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>21.69323502888326</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-9.711787057896776e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1179784.198301284</v>
+        <v>1179784.198301283</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="E2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
         <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="I2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592851</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758336</v>
+        <v>787.7936905758429</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758285</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758436</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477249</v>
+        <v>18952.41620477238</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565573.5654992883</v>
+        <v>-565573.565499288</v>
       </c>
       <c r="C6" t="n">
         <v>24394.31371525626</v>
       </c>
       <c r="D6" t="n">
-        <v>24394.31371525642</v>
+        <v>24394.3137152562</v>
       </c>
       <c r="E6" t="n">
-        <v>-383317.7202735632</v>
+        <v>-383415.1793995357</v>
       </c>
       <c r="F6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="G6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="H6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="I6" t="n">
-        <v>141842.3162033325</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="J6" t="n">
-        <v>-34580.90298926018</v>
+        <v>-34678.36211523248</v>
       </c>
       <c r="K6" t="n">
-        <v>84350.05236932075</v>
+        <v>84331.55863138667</v>
       </c>
       <c r="L6" t="n">
-        <v>115047.9374064966</v>
+        <v>115047.9374064964</v>
       </c>
       <c r="M6" t="n">
-        <v>-9410.171026473909</v>
+        <v>-9410.171026473879</v>
       </c>
       <c r="N6" t="n">
+        <v>125390.8442073634</v>
+      </c>
+      <c r="O6" t="n">
         <v>125390.8442073633</v>
       </c>
-      <c r="O6" t="n">
-        <v>125390.8442073634</v>
-      </c>
       <c r="P6" t="n">
-        <v>81228.23890451758</v>
+        <v>81228.23890451774</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108366</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>192.4921975655239</v>
+        <v>249.1602299930993</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>43.90704846330483</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>207.9223647341131</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>155.6458003804015</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>120.8562530949686</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>207.5490445628361</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>215.6670913030174</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.6222084071098</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>26.74581966071315</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28059,25 +28059,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.85001617220778e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31139,10 +31139,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31367,10 +31367,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,16 +31613,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O9" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>274.5684716790591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,19 +32087,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>34.59579029910168</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>63.43474313802665</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>202.771728792391</v>
+        <v>52.55859371026978</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>196.1430416967707</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>351.8516207003251</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>285.7924702459142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33190,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>47.93166030412434</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,25 +33664,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>174.5375503176489</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>79.28971691238627</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34214,13 +34214,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>174.5375503176489</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34229,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,19 +34448,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>525.8345465113442</v>
+        <v>131.196520841094</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>285.8618651313868</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>247.9231043636336</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>387.2600900179979</v>
+        <v>237.0469549358767</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.7668397349903</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>189.2800545643784</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>675.4226505283067</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>537.0585450781992</v>
+        <v>131.196520841094</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>73.16654148477289</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>301.1613483558685</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>263.7780781379932</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>21.2611815493567</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>522.5382125778691</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>251.618127533444</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
